--- a/molgenis-app/src/test/resources/xls/emx_all_datatypes_metadata_only.xlsx
+++ b/molgenis-app/src/test/resources/xls/emx_all_datatypes_metadata_only.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="5" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>readOnly</t>
   </si>
   <si>
-    <t>aggregateable</t>
-  </si>
-  <si>
     <t>visible</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>euro_nl_org_molgenis_test_TypeTest</t>
+  </si>
+  <si>
+    <t>aggregatable</t>
   </si>
 </sst>
 </file>
@@ -703,57 +703,57 @@
         <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -798,7 +798,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
@@ -809,7 +809,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -879,13 +879,13 @@
         <v>68</v>
       </c>
       <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
-        <v>70</v>
-      </c>
       <c r="O1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -913,7 +913,7 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -936,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -956,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -976,7 +976,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
@@ -996,13 +996,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -1056,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -1110,7 +1110,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
@@ -1130,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -1184,7 +1184,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -1207,7 +1207,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -1227,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -1264,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>56</v>
@@ -1284,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -1301,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -1321,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
@@ -1338,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -1361,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -1384,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -1401,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -1418,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -1444,7 +1444,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
@@ -1470,13 +1470,13 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -1533,7 +1533,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -1550,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
@@ -1704,16 +1704,16 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>

--- a/molgenis-app/src/test/resources/xls/emx_all_datatypes_metadata_only.xlsx
+++ b/molgenis-app/src/test/resources/xls/emx_all_datatypes_metadata_only.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="5" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <t>euro_nl_org_molgenis_test_TypeTest</t>
   </si>
   <si>
-    <t>aggregatable</t>
+    <t>aggregateable</t>
   </si>
 </sst>
 </file>
@@ -688,14 +688,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -706,7 +706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -717,7 +717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -725,7 +725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -733,7 +733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -741,17 +741,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -775,14 +775,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -793,7 +793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -804,7 +804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -830,18 +830,18 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -888,7 +888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
